--- a/biology/Botanique/Dendrophylax_fawcettii/Dendrophylax_fawcettii.xlsx
+++ b/biology/Botanique/Dendrophylax_fawcettii/Dendrophylax_fawcettii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrophylax fawcettii est une espèce de plantes épiphytes et saxicoles du genre Dendrophylax et de la famille des Orchidaceae (les orchidées).
 Protégée, c'est une espèce endémique des îles Caïmans dans la mer des Caraïbes. Elle fait partie de la liste des 100 espèces les plus menacées au monde établie par l'UICN en 2012.
